--- a/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,65 +452,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>357</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>123</v>
       </c>
     </row>
@@ -525,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +643,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>357</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>300</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,22 +594,6 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B21" t="n">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -621,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,14 +673,6 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -671,6 +672,411 @@
       </c>
       <c r="B7" t="n">
         <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-105.0817688391891</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.57197027014781</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-87.29919717297663</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.82692180663594</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-82.84333970974471</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.37506351786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-72.92769269847756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>82.59687695038444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-68.64948363056973</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.15982893508608</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-59.79496614587347</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.26710515995396</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-47.58147224157027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>103.218490489506</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-38.47385806126292</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.1124256320823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-30.39301938666001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>118.8109489159688</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-24.28162228495999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>130.7383221802064</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>66</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-13.44031377914871</v>
+      </c>
+      <c r="D12" t="n">
+        <v>139.3332021469703</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.449269261191917</v>
+      </c>
+      <c r="D13" t="n">
+        <v>149.1929894262678</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>102</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.49830357590232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>178.5876941096271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>111</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.0779089696858</v>
+      </c>
+      <c r="D15" t="n">
+        <v>186.7075995213061</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>120</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38.92660745673115</v>
+      </c>
+      <c r="D16" t="n">
+        <v>198.5429615197041</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>129</v>
+      </c>
+      <c r="C17" t="n">
+        <v>53.37416387443196</v>
+      </c>
+      <c r="D17" t="n">
+        <v>203.063791138876</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>138</v>
+      </c>
+      <c r="C18" t="n">
+        <v>55.37170684517007</v>
+      </c>
+      <c r="D18" t="n">
+        <v>216.6512783176417</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>147</v>
+      </c>
+      <c r="C19" t="n">
+        <v>72.40703070496127</v>
+      </c>
+      <c r="D19" t="n">
+        <v>225.1530074870252</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>75.27798815596988</v>
+      </c>
+      <c r="D20" t="n">
+        <v>232.8367281213133</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>165</v>
+      </c>
+      <c r="C21" t="n">
+        <v>87.63840388313643</v>
+      </c>
+      <c r="D21" t="n">
+        <v>241.4402714921206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>174</v>
+      </c>
+      <c r="C22" t="n">
+        <v>91.90955841492384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>248.2851659814723</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>183</v>
+      </c>
+      <c r="C23" t="n">
+        <v>107.0325003839219</v>
+      </c>
+      <c r="D23" t="n">
+        <v>256.7033729401662</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>191</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114.2342679110252</v>
+      </c>
+      <c r="D24" t="n">
+        <v>266.7741524753727</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>125.3723880172993</v>
+      </c>
+      <c r="D25" t="n">
+        <v>271.9898787109265</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>209</v>
+      </c>
+      <c r="C26" t="n">
+        <v>127.429528623238</v>
+      </c>
+      <c r="D26" t="n">
+        <v>287.6357542479714</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>218</v>
+      </c>
+      <c r="C27" t="n">
+        <v>142.1514945165898</v>
+      </c>
+      <c r="D27" t="n">
+        <v>294.7661806015753</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJK3YVB2_po_data.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,16 +704,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -722,12 +712,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-105.0817688391891</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55.57197027014781</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -736,12 +720,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-87.29919717297663</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.82692180663594</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -750,12 +728,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-82.84333970974471</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.37506351786</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -764,12 +736,6 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>-72.92769269847756</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82.59687695038444</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -778,12 +744,6 @@
       <c r="B6" t="n">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>-68.64948363056973</v>
-      </c>
-      <c r="D6" t="n">
-        <v>89.15982893508608</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -792,12 +752,6 @@
       <c r="B7" t="n">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>-59.79496614587347</v>
-      </c>
-      <c r="D7" t="n">
-        <v>95.26710515995396</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -806,12 +760,6 @@
       <c r="B8" t="n">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
-        <v>-47.58147224157027</v>
-      </c>
-      <c r="D8" t="n">
-        <v>103.218490489506</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -820,12 +768,6 @@
       <c r="B9" t="n">
         <v>39</v>
       </c>
-      <c r="C9" t="n">
-        <v>-38.47385806126292</v>
-      </c>
-      <c r="D9" t="n">
-        <v>113.1124256320823</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -834,12 +776,6 @@
       <c r="B10" t="n">
         <v>48</v>
       </c>
-      <c r="C10" t="n">
-        <v>-30.39301938666001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>118.8109489159688</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -848,12 +784,6 @@
       <c r="B11" t="n">
         <v>57</v>
       </c>
-      <c r="C11" t="n">
-        <v>-24.28162228495999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>130.7383221802064</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -862,12 +792,6 @@
       <c r="B12" t="n">
         <v>66</v>
       </c>
-      <c r="C12" t="n">
-        <v>-13.44031377914871</v>
-      </c>
-      <c r="D12" t="n">
-        <v>139.3332021469703</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -876,12 +800,6 @@
       <c r="B13" t="n">
         <v>75</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.449269261191917</v>
-      </c>
-      <c r="D13" t="n">
-        <v>149.1929894262678</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -890,12 +808,6 @@
       <c r="B14" t="n">
         <v>102</v>
       </c>
-      <c r="C14" t="n">
-        <v>16.49830357590232</v>
-      </c>
-      <c r="D14" t="n">
-        <v>178.5876941096271</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -904,12 +816,6 @@
       <c r="B15" t="n">
         <v>111</v>
       </c>
-      <c r="C15" t="n">
-        <v>31.0779089696858</v>
-      </c>
-      <c r="D15" t="n">
-        <v>186.7075995213061</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -918,12 +824,6 @@
       <c r="B16" t="n">
         <v>120</v>
       </c>
-      <c r="C16" t="n">
-        <v>38.92660745673115</v>
-      </c>
-      <c r="D16" t="n">
-        <v>198.5429615197041</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -932,12 +832,6 @@
       <c r="B17" t="n">
         <v>129</v>
       </c>
-      <c r="C17" t="n">
-        <v>53.37416387443196</v>
-      </c>
-      <c r="D17" t="n">
-        <v>203.063791138876</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -946,12 +840,6 @@
       <c r="B18" t="n">
         <v>138</v>
       </c>
-      <c r="C18" t="n">
-        <v>55.37170684517007</v>
-      </c>
-      <c r="D18" t="n">
-        <v>216.6512783176417</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -960,12 +848,6 @@
       <c r="B19" t="n">
         <v>147</v>
       </c>
-      <c r="C19" t="n">
-        <v>72.40703070496127</v>
-      </c>
-      <c r="D19" t="n">
-        <v>225.1530074870252</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -974,12 +856,6 @@
       <c r="B20" t="n">
         <v>156</v>
       </c>
-      <c r="C20" t="n">
-        <v>75.27798815596988</v>
-      </c>
-      <c r="D20" t="n">
-        <v>232.8367281213133</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -988,12 +864,6 @@
       <c r="B21" t="n">
         <v>165</v>
       </c>
-      <c r="C21" t="n">
-        <v>87.63840388313643</v>
-      </c>
-      <c r="D21" t="n">
-        <v>241.4402714921206</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1002,12 +872,6 @@
       <c r="B22" t="n">
         <v>174</v>
       </c>
-      <c r="C22" t="n">
-        <v>91.90955841492384</v>
-      </c>
-      <c r="D22" t="n">
-        <v>248.2851659814723</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1016,12 +880,6 @@
       <c r="B23" t="n">
         <v>183</v>
       </c>
-      <c r="C23" t="n">
-        <v>107.0325003839219</v>
-      </c>
-      <c r="D23" t="n">
-        <v>256.7033729401662</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1030,12 +888,6 @@
       <c r="B24" t="n">
         <v>191</v>
       </c>
-      <c r="C24" t="n">
-        <v>114.2342679110252</v>
-      </c>
-      <c r="D24" t="n">
-        <v>266.7741524753727</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1044,12 +896,6 @@
       <c r="B25" t="n">
         <v>200</v>
       </c>
-      <c r="C25" t="n">
-        <v>125.3723880172993</v>
-      </c>
-      <c r="D25" t="n">
-        <v>271.9898787109265</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1058,12 +904,6 @@
       <c r="B26" t="n">
         <v>209</v>
       </c>
-      <c r="C26" t="n">
-        <v>127.429528623238</v>
-      </c>
-      <c r="D26" t="n">
-        <v>287.6357542479714</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1071,12 +911,6 @@
       </c>
       <c r="B27" t="n">
         <v>218</v>
-      </c>
-      <c r="C27" t="n">
-        <v>142.1514945165898</v>
-      </c>
-      <c r="D27" t="n">
-        <v>294.7661806015753</v>
       </c>
     </row>
   </sheetData>
